--- a/ocms/src/test/resources/DownloadedFiles/Chat Templates.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Chat Templates.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">bengteth\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">30/10/2019 16:56:33</t>
+    <t xml:space="preserve">04/11/2019 14:42:23</t>
   </si>
 </sst>
 </file>

--- a/ocms/src/test/resources/DownloadedFiles/Chat Templates.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Chat Templates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Department Name</t>
   </si>
@@ -46,6 +46,33 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">AmyTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmyGroupTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmyTextChattemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharti Airtel Limited is a leading global telecommunications company with operations in 18 countries across Asia and Africa. Headquartered in New Delhi, India, the company ranks amongst the top 3 mobile service providers globally in terms of subscribers. In India, the company''''s product offerings include 2G, 3G and 4G wireless services, mobile commerce, fixed line services, high speed home broadband, DTH, enterprise services including national &amp; international long distance services to carriers. In the rest of the geographies, it offers 2G, 3G, 4G wireless services and mobile commerce. Bharti Airtel had over 403 million customers across its operations at the end of March 2019. To know more please visit, www.airtel.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bengteth\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2019 15:48:45</t>
+  </si>
+  <si>
     <t xml:space="preserve">DeptPalak</t>
   </si>
   <si>
@@ -55,9 +82,6 @@
     <t xml:space="preserve">PalakChatTemplate</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Welcome to Chat Service</t>
   </si>
   <si>
@@ -67,10 +91,7 @@
     <t xml:space="preserve">20:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2019 14:42:23</t>
+    <t xml:space="preserve">08/11/2019 10:40:58</t>
   </si>
 </sst>
 </file>
@@ -138,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -147,10 +168,10 @@
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="15.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="10.714285714285714" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="17.714285714285715" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="7.714285714285714" bestFit="1"/>
-    <col min="5" max="5" customWidth="1" width="23.714285714285715" bestFit="1"/>
+    <col min="5" max="5" customWidth="1" width="727.7142857142857" bestFit="1"/>
     <col min="6" max="6" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="7" max="7" customWidth="1" width="8.714285714285714" bestFit="1"/>
     <col min="8" max="8" customWidth="1" width="22.714285714285715" bestFit="1"/>
@@ -215,6 +236,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/DownloadedFiles/Chat Templates.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Chat Templates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Department Name</t>
   </si>
@@ -46,52 +46,31 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">AmyTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmyGroupTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmyTextChattemp</t>
+    <t xml:space="preserve">DeptPalak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrpPalak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PalakChatTemplate</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Bharti Airtel Limited is a leading global telecommunications company with operations in 18 countries across Asia and Africa. Headquartered in New Delhi, India, the company ranks amongst the top 3 mobile service providers globally in terms of subscribers. In India, the company''''s product offerings include 2G, 3G and 4G wireless services, mobile commerce, fixed line services, high speed home broadband, DTH, enterprise services including national &amp; international long distance services to carriers. In the rest of the geographies, it offers 2G, 3G, 4G wireless services and mobile commerce. Bharti Airtel had over 403 million customers across its operations at the end of March 2019. To know more please visit, www.airtel.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:00:00</t>
+    <t xml:space="preserve">Welcome to Chat Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">bengteth\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 15:48:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeptPalak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrpPalak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PalakChatTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to Chat Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/11/2019 10:40:58</t>
+    <t xml:space="preserve">15/11/2019 11:22:19</t>
   </si>
 </sst>
 </file>
@@ -159,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -168,10 +147,10 @@
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="15.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="17.714285714285715" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="7.714285714285714" bestFit="1"/>
-    <col min="5" max="5" customWidth="1" width="727.7142857142857" bestFit="1"/>
+    <col min="5" max="5" customWidth="1" width="23.714285714285715" bestFit="1"/>
     <col min="6" max="6" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="7" max="7" customWidth="1" width="8.714285714285714" bestFit="1"/>
     <col min="8" max="8" customWidth="1" width="22.714285714285715" bestFit="1"/>
@@ -236,35 +215,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
